--- a/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
+++ b/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="86">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -538,22 +538,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F195"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A149" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B166" activeCellId="0" sqref="B166"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F163" activeCellId="0" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="65.6071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.1224489795918"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.7959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2616,22 +2616,25 @@
       <c r="A162" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B162" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F162" s="9" t="s">
-        <v>48</v>
+      <c r="B162" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="0" t="s">
-        <v>49</v>
+      <c r="B163" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2639,13 +2642,7 @@
         <v>2</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C164" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D164" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2653,7 +2650,13 @@
         <v>2</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2661,7 +2664,7 @@
         <v>2</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2669,13 +2672,7 @@
         <v>2</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C167" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D167" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2683,19 +2680,13 @@
         <v>2</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C168" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E168" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F168" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2705,19 +2696,25 @@
       <c r="B169" s="0" t="s">
         <v>56</v>
       </c>
+      <c r="C169" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F169" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C170" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D170" s="0" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2725,19 +2722,13 @@
         <v>2</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C171" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E171" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F171" s="0" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2745,7 +2736,19 @@
         <v>2</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2753,13 +2756,7 @@
         <v>2</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C173" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D173" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2767,19 +2764,13 @@
         <v>2</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C174" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E174" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F174" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2787,13 +2778,19 @@
         <v>2</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C175" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>62</v>
+        <v>16</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2801,19 +2798,13 @@
         <v>2</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C176" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E176" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F176" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2821,7 +2812,19 @@
         <v>2</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2829,13 +2832,7 @@
         <v>2</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C178" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D178" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2843,36 +2840,42 @@
         <v>2</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B181" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D180" s="9" t="s">
+      <c r="D181" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="3"/>
-      <c r="B181" s="9"/>
-      <c r="D181" s="9"/>
-    </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="A182" s="3"/>
+      <c r="B182" s="9"/>
+      <c r="D182" s="9"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2880,7 +2883,7 @@
         <v>2</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2888,7 +2891,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2896,7 +2899,7 @@
         <v>2</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2904,7 +2907,7 @@
         <v>2</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2912,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2920,13 +2923,7 @@
         <v>2</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C189" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D189" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2934,7 +2931,13 @@
         <v>2</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2942,7 +2945,7 @@
         <v>2</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2950,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2958,7 +2961,7 @@
         <v>2</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2966,7 +2969,7 @@
         <v>2</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2974,6 +2977,14 @@
         <v>2</v>
       </c>
       <c r="B195" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B196" s="0" t="s">
         <v>85</v>
       </c>
     </row>

--- a/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
+++ b/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="86">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -64,6 +64,9 @@
     <t xml:space="preserve">A TRAVÉS DEL PUNTO NEUTRO JUDICIAL</t>
   </si>
   <si>
+    <t xml:space="preserve">RELACIÓN DE BIENES</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONSULTA INTEGRAL</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
     <t xml:space="preserve">AVERIGUACIÓN PATRIMONIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">RELACIÓN DE BIENES</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONSTAN AMBAS GESTIONES TRAMITADAS</t>
   </si>
   <si>
@@ -256,22 +256,22 @@
     <t xml:space="preserve">INVERTIGACION PATRIMONIAL</t>
   </si>
   <si>
+    <t xml:space="preserve">CONSULTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRIMONIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTIFICA ACUERDO INVESTIGACIÃN DEL PATRIMONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACORDANDO AVERIGUACION DOMICILIARIA A TRAVES DEL P.N.J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSULTA PATRIMONIAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">AVERIGUACION PATRIMONIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PATRIMONIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTIFICA ACUERDO INVESTIGACIÃN DEL PATRIMONIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACORDANDO AVERIGUACION DOMICILIARIA A TRAVES DEL P.N.J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTA PATRIMONIAL</t>
   </si>
   <si>
     <t xml:space="preserve">DILIGENCIA ORDENACION AVER PATRIMONIAL</t>
@@ -538,10 +538,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F163" activeCellId="0" sqref="F163"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -639,6 +639,9 @@
       <c r="D9" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="F9" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
@@ -651,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -665,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -679,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -693,7 +696,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -707,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -727,7 +730,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -826,6 +829,9 @@
       <c r="D23" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="F23" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
@@ -838,7 +844,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -852,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -866,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -880,7 +886,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -894,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -914,7 +920,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1016,6 +1022,9 @@
       <c r="D37" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="F37" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
@@ -1028,7 +1037,7 @@
         <v>10</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1042,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1056,7 +1065,7 @@
         <v>10</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1070,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1084,7 +1093,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1104,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1195,6 +1204,9 @@
       <c r="D50" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="F50" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
@@ -1207,7 +1219,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1221,7 +1233,7 @@
         <v>10</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1235,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1249,7 +1261,7 @@
         <v>10</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1263,7 +1275,7 @@
         <v>10</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1283,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1385,6 +1397,9 @@
       <c r="D64" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="F64" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
@@ -1397,7 +1412,7 @@
         <v>10</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1411,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1425,7 +1440,7 @@
         <v>10</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1439,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1453,7 +1468,7 @@
         <v>10</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1473,7 +1488,7 @@
         <v>10</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1587,7 +1602,7 @@
         <v>10</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1601,7 +1616,7 @@
         <v>10</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1615,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1629,7 +1644,7 @@
         <v>10</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1643,7 +1658,7 @@
         <v>10</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1663,7 +1678,7 @@
         <v>10</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1765,6 +1780,9 @@
       <c r="D92" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="F92" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
@@ -1777,7 +1795,7 @@
         <v>10</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1791,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1805,7 +1823,7 @@
         <v>10</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1819,7 +1837,7 @@
         <v>10</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1833,7 +1851,7 @@
         <v>10</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1853,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1952,6 +1970,9 @@
       <c r="D106" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="F106" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
@@ -1961,7 +1982,7 @@
         <v>33</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1972,7 +1993,7 @@
         <v>33</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1983,7 +2004,7 @@
         <v>33</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1994,7 +2015,7 @@
         <v>33</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2005,7 +2026,7 @@
         <v>33</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2018,6 +2039,9 @@
       <c r="D112" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="F112" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
@@ -2631,7 +2655,7 @@
         <v>47</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F163" s="9" t="s">
         <v>48</v>
@@ -2784,7 +2808,7 @@
         <v>10</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E175" s="0" t="s">
         <v>10</v>
@@ -2818,7 +2842,7 @@
         <v>10</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E177" s="0" t="s">
         <v>10</v>
@@ -2925,18 +2949,18 @@
       <c r="B189" s="0" t="s">
         <v>78</v>
       </c>
+      <c r="C189" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C190" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D190" s="0" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2969,7 +2993,7 @@
         <v>2</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2977,17 +3001,10 @@
         <v>2</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B196" s="0" t="s">
         <v>85</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0" footer="0"/>

--- a/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
+++ b/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
@@ -541,19 +541,19 @@
   <dimension ref="A1:F65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
+      <selection pane="topLeft" activeCell="B42" activeCellId="1" sqref="C43 B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.7857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.7959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.1224489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
+++ b/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
@@ -540,8 +540,8 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="1" sqref="C43 B42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
+++ b/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
@@ -546,14 +546,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.1224489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.4438775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
+++ b/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="88">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -229,13 +229,19 @@
     <t xml:space="preserve">PROCÉDASE  A REALIZAR CONSULTA TELEMÁTICA A LAS BASES DE DATOS</t>
   </si>
   <si>
-    <t xml:space="preserve">SE AUTORIZA A DICHOS EFECTOS EL ACCESO A LAS BASES DE DATOS PROCEDENTES</t>
-  </si>
-  <si>
     <t xml:space="preserve">PASEN</t>
   </si>
   <si>
     <t xml:space="preserve">AL EQUIPO DE AVERIGUACIÓN PATRIMONIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSULTA DE VIDA LABORAL DE LA TGSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECABAR INFORMACIÓN DEL PATRIMONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAR VISTA DE LA AVERIGUACION A LA TGSS</t>
   </si>
   <si>
     <t xml:space="preserve">TICKET</t>
@@ -287,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -343,6 +349,12 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -420,7 +432,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -458,6 +470,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -538,22 +554,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F65536"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A168" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B184" activeCellId="0" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.3826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.4438775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.6377551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2877,8 +2893,11 @@
       <c r="A180" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B180" s="9" t="s">
         <v>69</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2886,35 +2905,35 @@
         <v>2</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D181" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="D181" s="9"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="3"/>
-      <c r="B182" s="9"/>
+      <c r="A182" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="D182" s="9"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
-        <v>72</v>
-      </c>
+      <c r="A183" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D183" s="9"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B184" s="0" t="s">
-        <v>73</v>
-      </c>
+      <c r="A184" s="3"/>
+      <c r="B184" s="9"/>
+      <c r="D184" s="9"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B185" s="0" t="s">
+      <c r="A185" s="0" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2949,19 +2968,13 @@
       <c r="B189" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C189" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D189" s="0" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2969,6 +2982,12 @@
         <v>2</v>
       </c>
       <c r="B191" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="0" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3004,7 +3023,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0" footer="0"/>

--- a/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
+++ b/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="92">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -49,159 +49,156 @@
     <t xml:space="preserve">CONSULTA INTEGRAL PATRIMONIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">EL ANTERIOR OFICIO DEL INSS</t>
+    <t xml:space="preserve">HABIENDOSE OBTENIDO</t>
   </si>
   <si>
     <t xml:space="preserve">+</t>
   </si>
   <si>
+    <t xml:space="preserve">A TRAVÉS DEL PUNTO NEUTRO JUDICIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELACIÓN DE BIENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSULTA INTEGRAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUNTO NEUTRO JUDICIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA SITUACIÓN LABORAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVERIGUACIÓN PATRIMONIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTAN AMBAS GESTIONES TRAMITADAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOBRE EL PATRIMONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVERIGUAR EL PATRIMONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DILIGENCIAS DE AVERIGUACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATASTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A FIN DE AVERIGUAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSULTA TELEMÁTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCÉDASE A SU AVERIGUACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSULTENSE LAS BASES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCÉSADE A CONSULTAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVERIGUAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCÉDASE A LA AVERIGUACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADJUDICAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL EJECUTANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL BIEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A LA PARTE EJECUTANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A LA PARTE DEMANDANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOS BIENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOS BIENES DE LOS EJECUTADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVERIGUACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORMACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRACTICAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEDER VIA TELEMÁTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORMACIÓN LABORAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIENES DE LOS DEMANDADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECABAR INFORMACION SOBRE LA SITUACION LABORAL Y PATRIMONIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESUMEN DEL RESULTADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICIO INTEGRAL DE CONSULTA PATRIMONIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRACTÍQUESE LA MISMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVESTIGACIÓN PATRIMONIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCEDER PARA SU EFECTIVIDAD A MEDIO DEL PUNTO NEUTRO JUDICIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCEDE PRACTICAR DILIGENCIAS DE AVERIGUACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PÓNGASE EN CONOCIMIENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL SERVICIO TELEMÁTICO DE CUENTAS DEL PUNTO NEUTRO JUDICIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSULTA A LAS BASES DE DATOS DE LA AEAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELEMÁTICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORMACIÓN VÍA TELEMÁTICA SOBRE BIENES</t>
+  </si>
+  <si>
     <t xml:space="preserve">DÉSE VISTA</t>
   </si>
   <si>
-    <t xml:space="preserve">HABIENDOSE OBTENIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A TRAVÉS DEL PUNTO NEUTRO JUDICIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELACIÓN DE BIENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTA INTEGRAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUNTO NEUTRO JUDICIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA SITUACIÓN LABORAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVERIGUACIÓN PATRIMONIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSTAN AMBAS GESTIONES TRAMITADAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOBRE EL PATRIMONIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVERIGUAR EL PATRIMONIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DILIGENCIAS DE AVERIGUACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AEAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATASTRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A FIN DE AVERIGUAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTA TELEMÁTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROCÉDASE A SU AVERIGUACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTENSE LAS BASES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROCÉSADE A CONSULTAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVERIGUAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROCÉDASE A LA AVERIGUACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADJUDICAR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AL EJECUTANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL BIEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A LA PARTE EJECUTANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A LA PARTE DEMANDANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOS BIENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOS BIENES DE LOS EJECUTADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVERIGUACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFORMACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRACTICAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCEDER VIA TELEMÁTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFORMACIÓN LABORAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIENES DE LOS DEMANDADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECABAR INFORMACION SOBRE LA SITUACION LABORAL Y PATRIMONIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESUMEN DEL RESULTADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICIO INTEGRAL DE CONSULTA PATRIMONIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRACTÍQUESE LA MISMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INVESTIGACIÓN PATRIMONIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROCEDER PARA SU EFECTIVIDAD A MEDIO DEL PUNTO NEUTRO JUDICIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROCEDE PRACTICAR DILIGENCIAS DE AVERIGUACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PÓNGASE EN CONOCIMIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AL SERVICIO TELEMÁTICO DE CUENTAS DEL PUNTO NEUTRO JUDICIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTA A LAS BASES DE DATOS DE LA AEAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELEMÁTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFORMACIÓN VÍA TELEMÁTICA SOBRE BIENES</t>
-  </si>
-  <si>
     <t xml:space="preserve">INFORMACIÓN SITUACIÓN LABORAL</t>
   </si>
   <si>
@@ -242,6 +239,21 @@
   </si>
   <si>
     <t xml:space="preserve">DAR VISTA DE LA AVERIGUACION A LA TGSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECABAR INFORMACION VIA TELEMATICA SOBRE BIENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE ACUERDA LA SOLICITUD DE AVERIGUACIÓN DE LA SITUACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRÓCEDASE A REALIZAR CONSULTA INTEGRAL DEL PATRIMONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECABAR INFORMACION DEL PATRIMONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSULTESE LA AVERIGUACION PATRIMONIAL</t>
   </si>
   <si>
     <t xml:space="preserve">TICKET</t>
@@ -293,7 +305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -349,12 +361,6 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -432,7 +438,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -470,10 +476,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -554,7 +556,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F197"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A168" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B184" activeCellId="0" sqref="B184"/>
@@ -562,14 +564,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.6377551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.7602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.83163265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -641,13 +642,16 @@
       <c r="D8" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="F8" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>10</v>
@@ -655,22 +659,19 @@
       <c r="D9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -678,13 +679,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -692,13 +693,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -706,13 +707,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -720,13 +721,19 @@
         <v>2</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -734,19 +741,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -754,13 +755,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -768,13 +769,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -782,10 +780,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -793,10 +791,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -804,10 +802,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -815,10 +813,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -826,10 +824,16 @@
         <v>2</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -837,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>10</v>
@@ -845,22 +849,19 @@
       <c r="D23" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -868,13 +869,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -882,13 +883,13 @@
         <v>2</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -896,13 +897,13 @@
         <v>2</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -910,13 +911,19 @@
         <v>2</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -924,19 +931,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -944,13 +945,13 @@
         <v>2</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -958,13 +959,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -972,13 +973,10 @@
         <v>2</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -986,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -997,10 +995,10 @@
         <v>2</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1008,10 +1006,10 @@
         <v>2</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1019,10 +1017,16 @@
         <v>2</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1030,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>10</v>
@@ -1038,22 +1042,19 @@
       <c r="D37" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1061,13 +1062,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1075,13 +1076,13 @@
         <v>2</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1089,13 +1090,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1103,13 +1104,19 @@
         <v>2</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1117,19 +1124,13 @@
         <v>2</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1137,13 +1138,13 @@
         <v>2</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1151,13 +1152,13 @@
         <v>2</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1165,13 +1166,10 @@
         <v>2</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1179,10 +1177,10 @@
         <v>2</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1190,10 +1188,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1201,10 +1199,16 @@
         <v>2</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1212,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>10</v>
@@ -1220,22 +1224,19 @@
       <c r="D50" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1243,13 +1244,13 @@
         <v>2</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1257,13 +1258,13 @@
         <v>2</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1271,13 +1272,13 @@
         <v>2</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1285,13 +1286,19 @@
         <v>2</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1299,19 +1306,13 @@
         <v>2</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1319,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1333,13 +1334,13 @@
         <v>2</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1347,13 +1348,10 @@
         <v>2</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1361,10 +1359,10 @@
         <v>2</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1372,10 +1370,10 @@
         <v>2</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1383,10 +1381,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1394,10 +1392,16 @@
         <v>2</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1405,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>10</v>
@@ -1413,22 +1417,19 @@
       <c r="D64" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1436,13 +1437,13 @@
         <v>2</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1450,13 +1451,13 @@
         <v>2</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1464,13 +1465,13 @@
         <v>2</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1478,13 +1479,19 @@
         <v>2</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1492,19 +1499,13 @@
         <v>2</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1512,13 +1513,13 @@
         <v>2</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1526,13 +1527,13 @@
         <v>2</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1540,13 +1541,10 @@
         <v>2</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1554,10 +1552,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1565,10 +1563,10 @@
         <v>2</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1576,10 +1574,10 @@
         <v>2</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1587,10 +1585,13 @@
         <v>2</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1598,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>10</v>
@@ -1612,13 +1613,13 @@
         <v>2</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1626,13 +1627,13 @@
         <v>2</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1640,13 +1641,13 @@
         <v>2</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1654,13 +1655,13 @@
         <v>2</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1668,13 +1669,19 @@
         <v>2</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1682,19 +1689,13 @@
         <v>2</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1702,13 +1703,13 @@
         <v>2</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1716,13 +1717,13 @@
         <v>2</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1730,13 +1731,10 @@
         <v>2</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1744,10 +1742,10 @@
         <v>2</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1755,10 +1753,10 @@
         <v>2</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1766,10 +1764,10 @@
         <v>2</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1777,10 +1775,16 @@
         <v>2</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1788,7 +1792,7 @@
         <v>2</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>10</v>
@@ -1796,22 +1800,19 @@
       <c r="D92" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1819,13 +1820,13 @@
         <v>2</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1833,13 +1834,13 @@
         <v>2</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1847,13 +1848,13 @@
         <v>2</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1861,13 +1862,19 @@
         <v>2</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1875,19 +1882,13 @@
         <v>2</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1895,13 +1896,13 @@
         <v>2</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1909,13 +1910,13 @@
         <v>2</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1923,13 +1924,10 @@
         <v>2</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1937,10 +1935,10 @@
         <v>2</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1948,10 +1946,10 @@
         <v>2</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1959,10 +1957,10 @@
         <v>2</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1970,10 +1968,13 @@
         <v>2</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1981,24 +1982,21 @@
         <v>2</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F106" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2006,10 +2004,10 @@
         <v>2</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2017,10 +2015,10 @@
         <v>2</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2028,10 +2026,10 @@
         <v>2</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2039,10 +2037,13 @@
         <v>2</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2050,13 +2051,10 @@
         <v>2</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2064,10 +2062,10 @@
         <v>2</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2075,10 +2073,10 @@
         <v>2</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2086,10 +2084,10 @@
         <v>2</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2097,10 +2095,10 @@
         <v>2</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2108,10 +2106,10 @@
         <v>2</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2119,10 +2117,10 @@
         <v>2</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2130,10 +2128,19 @@
         <v>2</v>
       </c>
       <c r="B119" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D119" s="0" t="s">
-        <v>26</v>
+      <c r="E119" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2141,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>10</v>
@@ -2153,7 +2160,7 @@
         <v>10</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2161,19 +2168,19 @@
         <v>2</v>
       </c>
       <c r="B121" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2181,19 +2188,19 @@
         <v>2</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E122" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2201,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>10</v>
@@ -2213,7 +2220,7 @@
         <v>10</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2221,50 +2228,41 @@
         <v>2</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D124" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>10</v>
+      <c r="B125" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E125" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" s="0" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>12</v>
+      <c r="B126" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2272,10 +2270,10 @@
         <v>2</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2283,10 +2281,10 @@
         <v>2</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2294,10 +2292,10 @@
         <v>2</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2305,10 +2303,10 @@
         <v>2</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2316,10 +2314,10 @@
         <v>2</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2327,10 +2325,10 @@
         <v>2</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2338,10 +2336,10 @@
         <v>2</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2349,10 +2347,10 @@
         <v>2</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2360,43 +2358,43 @@
         <v>2</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B136" s="5" t="s">
-        <v>43</v>
+      <c r="B136" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D137" s="0" t="s">
-        <v>40</v>
+      <c r="B137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>12</v>
+      <c r="B138" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2404,10 +2402,10 @@
         <v>2</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2415,10 +2413,10 @@
         <v>2</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2426,10 +2424,10 @@
         <v>2</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2437,10 +2435,10 @@
         <v>2</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2448,10 +2446,10 @@
         <v>2</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2459,10 +2457,10 @@
         <v>2</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2470,10 +2468,10 @@
         <v>2</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2481,10 +2479,10 @@
         <v>2</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2492,43 +2490,43 @@
         <v>2</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D148" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>12</v>
+      <c r="B150" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2536,10 +2534,10 @@
         <v>2</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2547,10 +2545,10 @@
         <v>2</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2558,10 +2556,10 @@
         <v>2</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2569,10 +2567,10 @@
         <v>2</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2580,10 +2578,10 @@
         <v>2</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2591,10 +2589,10 @@
         <v>2</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2602,10 +2600,10 @@
         <v>2</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2613,10 +2611,10 @@
         <v>2</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2624,21 +2622,21 @@
         <v>2</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B160" s="5" t="s">
-        <v>43</v>
+      <c r="B160" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2646,35 +2644,32 @@
         <v>2</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D162" s="8" t="s">
+      <c r="B162" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D162" s="9" t="s">
         <v>13</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="D163" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F163" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2682,6 +2677,12 @@
         <v>2</v>
       </c>
       <c r="B164" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2692,19 +2693,13 @@
       <c r="B165" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C165" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D165" s="0" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2712,6 +2707,12 @@
         <v>2</v>
       </c>
       <c r="B167" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="0" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2728,25 +2729,19 @@
       <c r="D168" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="E168" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" s="0" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C169" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D169" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E169" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F169" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2754,7 +2749,13 @@
         <v>2</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2762,13 +2763,19 @@
         <v>2</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C171" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>11</v>
+        <v>55</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2776,19 +2783,7 @@
         <v>2</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C172" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D172" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E172" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F172" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2798,19 +2793,31 @@
       <c r="B173" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="C173" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C174" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>62</v>
+        <v>15</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2818,19 +2825,13 @@
         <v>2</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C175" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E175" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F175" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2844,7 +2845,13 @@
         <v>10</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>62</v>
+        <v>15</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2854,18 +2861,6 @@
       <c r="B177" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C177" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D177" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F177" s="0" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
@@ -2874,19 +2869,22 @@
       <c r="B178" s="0" t="s">
         <v>67</v>
       </c>
+      <c r="C178" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B179" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C179" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D179" s="0" t="s">
-        <v>55</v>
+      <c r="D179" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2894,11 +2892,9 @@
         <v>2</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D180" s="9" t="s">
         <v>70</v>
       </c>
+      <c r="D180" s="9"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
@@ -2922,50 +2918,54 @@
       <c r="A183" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D183" s="9"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="3"/>
-      <c r="B184" s="9"/>
+      <c r="A184" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="D184" s="9"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
-        <v>74</v>
-      </c>
+      <c r="A185" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D185" s="9"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B186" s="0" t="s">
-        <v>75</v>
-      </c>
+      <c r="B186" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D186" s="9"/>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B187" s="0" t="s">
-        <v>76</v>
-      </c>
+      <c r="B187" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D187" s="9"/>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>77</v>
-      </c>
+      <c r="A188" s="3"/>
+      <c r="B188" s="9"/>
+      <c r="D188" s="9"/>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B189" s="0" t="s">
+      <c r="A189" s="0" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2984,19 +2984,13 @@
       <c r="B191" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C191" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D191" s="0" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3004,7 +2998,7 @@
         <v>2</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3012,7 +3006,7 @@
         <v>2</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3020,6 +3014,12 @@
         <v>2</v>
       </c>
       <c r="B195" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" s="0" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3037,6 +3037,38 @@
       </c>
       <c r="B197" s="0" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
+++ b/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="92">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -558,19 +558,20 @@
   </sheetPr>
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A168" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B184" activeCellId="0" sqref="B184"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B162" activeCellId="0" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.7602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.8265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.1632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.91836734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.1530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2657,9 +2658,7 @@
       <c r="B162" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D162" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="D162" s="9"/>
       <c r="F162" s="9" t="s">
         <v>46</v>
       </c>

--- a/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
+++ b/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="94">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t xml:space="preserve">CONSULTESE LA AVERIGUACION PATRIMONIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEDER VIA TELEMATICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA INFORMACION LABORAL</t>
   </si>
   <si>
     <t xml:space="preserve">TICKET</t>
@@ -556,10 +562,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B162" activeCellId="0" sqref="B162"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B190" activeCellId="0" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2959,21 +2965,24 @@
       <c r="D187" s="9"/>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="3"/>
-      <c r="B188" s="9"/>
-      <c r="D188" s="9"/>
+      <c r="A188" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
-        <v>78</v>
-      </c>
+      <c r="A189" s="3"/>
+      <c r="B189" s="9"/>
+      <c r="D189" s="9"/>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B190" s="0" t="s">
-        <v>79</v>
+      <c r="A190" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2981,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2989,7 +2998,7 @@
         <v>2</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2997,7 +3006,7 @@
         <v>2</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3005,7 +3014,7 @@
         <v>2</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3013,12 +3022,6 @@
         <v>2</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C195" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D195" s="0" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3029,13 +3032,19 @@
       <c r="B196" s="0" t="s">
         <v>86</v>
       </c>
+      <c r="C196" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3043,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3051,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3059,7 +3068,7 @@
         <v>2</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3067,7 +3076,15 @@
         <v>2</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
+++ b/new_classification_db/N16 -  PENDING ASSET INQUIRY.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="93">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t xml:space="preserve">AL EQUIPO DE AVERIGUACIÓN PATRIMONIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTA DE VIDA LABORAL DE LA TGSS</t>
   </si>
   <si>
     <t xml:space="preserve">RECABAR INFORMACIÓN DEL PATRIMONIO</t>
@@ -562,22 +559,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F202"/>
+  <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B190" activeCellId="0" sqref="B190"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B184" activeCellId="0" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.1632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.91836734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.1530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.2448979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.69897959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.4744897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2962,26 +2959,25 @@
       <c r="B187" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D187" s="9"/>
+      <c r="D187" s="9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D188" s="9" t="s">
+      <c r="A188" s="3"/>
+      <c r="B188" s="9"/>
+      <c r="D188" s="9"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="3"/>
-      <c r="B189" s="9"/>
-      <c r="D189" s="9"/>
-    </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+      <c r="A190" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B190" s="0" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3024,18 +3020,18 @@
       <c r="B195" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="C195" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C196" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D196" s="0" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3079,14 +3075,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0" footer="0"/>
